--- a/KM5c_data/ODP_Site_642.xlsx
+++ b/KM5c_data/ODP_Site_642.xlsx
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="P2">
-        <v>7.159050169</v>
+        <v>6.78</v>
       </c>
       <c r="Q2">
-        <v>6.680949831</v>
+        <v>7.059325807359484</v>
       </c>
       <c r="R2">
-        <v>6.022494720999999</v>
+        <v>6.400870697359484</v>
       </c>
       <c r="S2">
         <v>1.718787878787879</v>
